--- a/corporation_excel/you/today.xlsx
+++ b/corporation_excel/you/today.xlsx
@@ -1,138 +1,727 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.137.47964"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>kim</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>dae</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>check_time</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+  <fonts count="21">
+    <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="3" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="2" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="하이퍼링크" xfId="6" builtinId="8" hidden="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,71 +1009,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.000000"/>
+  <cols>
+    <col min="4" max="4" width="11.75500011" customWidth="1" outlineLevel="0"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>check</t>
-        </is>
+    <row r="1" spans="1:4" ht="16.500000">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>kim</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="2" spans="1:4">
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>dae</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>bbb</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+    <row r="3" spans="1:4">
+      <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>